--- a/Code/Results/Cases/Case_8_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.106062982369224</v>
+        <v>1.093431856957068</v>
       </c>
       <c r="C2">
-        <v>0.1388242762640104</v>
+        <v>0.1513454608099423</v>
       </c>
       <c r="D2">
-        <v>0.0812075194925157</v>
+        <v>0.08148718987637693</v>
       </c>
       <c r="E2">
-        <v>0.07451419354119437</v>
+        <v>0.07405430593552964</v>
       </c>
       <c r="F2">
-        <v>0.5797444043935158</v>
+        <v>0.5061628855984281</v>
       </c>
       <c r="G2">
-        <v>0.0008203853488784259</v>
+        <v>0.01319688668613267</v>
       </c>
       <c r="H2">
-        <v>0.003613874034014697</v>
+        <v>0.001839118426807396</v>
       </c>
       <c r="I2">
-        <v>0.006416147047040965</v>
+        <v>0.003298172806886157</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4576580036600824</v>
+        <v>0.385448065461226</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1802036779319138</v>
       </c>
       <c r="M2">
-        <v>0.9804958541843121</v>
+        <v>0.1134651980553709</v>
       </c>
       <c r="N2">
-        <v>0.2689278857469333</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.021008625279819</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2807084218425899</v>
       </c>
       <c r="Q2">
-        <v>1.838781565892347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.563298744335128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9633242584329764</v>
+        <v>0.9547244362052254</v>
       </c>
       <c r="C3">
-        <v>0.1299346368906882</v>
+        <v>0.1400774984884663</v>
       </c>
       <c r="D3">
-        <v>0.07412386244468649</v>
+        <v>0.07305670811413023</v>
       </c>
       <c r="E3">
-        <v>0.06783784965077189</v>
+        <v>0.06846787237132546</v>
       </c>
       <c r="F3">
-        <v>0.5574411507226174</v>
+        <v>0.4869250313577069</v>
       </c>
       <c r="G3">
-        <v>0.0008231913301333581</v>
+        <v>0.01629935764354534</v>
       </c>
       <c r="H3">
-        <v>0.005224714402700836</v>
+        <v>0.002872593567717407</v>
       </c>
       <c r="I3">
-        <v>0.008444690085998907</v>
+        <v>0.004442473672111813</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4559989184888842</v>
+        <v>0.386031937682521</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1844713079537499</v>
       </c>
       <c r="M3">
-        <v>0.8570155546953231</v>
+        <v>0.1111560573106711</v>
       </c>
       <c r="N3">
-        <v>0.2361759763561651</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8930613879063856</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2472067105235141</v>
       </c>
       <c r="Q3">
-        <v>1.807307795659341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.538630021081815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8754465807760425</v>
+        <v>0.8691883553824482</v>
       </c>
       <c r="C4">
-        <v>0.1244998020507921</v>
+        <v>0.1332505538023625</v>
       </c>
       <c r="D4">
-        <v>0.06977263236339581</v>
+        <v>0.06789665597506911</v>
       </c>
       <c r="E4">
-        <v>0.06370109224368647</v>
+        <v>0.06499261728934869</v>
       </c>
       <c r="F4">
-        <v>0.544190660225695</v>
+        <v>0.4753349816890662</v>
       </c>
       <c r="G4">
-        <v>0.0008249763081369853</v>
+        <v>0.01844123535623859</v>
       </c>
       <c r="H4">
-        <v>0.006405186687954756</v>
+        <v>0.003651224247709639</v>
       </c>
       <c r="I4">
-        <v>0.009921516612223957</v>
+        <v>0.005312887968985436</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4551733618161435</v>
+        <v>0.3864526974864972</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1871300016586517</v>
       </c>
       <c r="M4">
-        <v>0.7812073098616281</v>
+        <v>0.1102546458381131</v>
       </c>
       <c r="N4">
-        <v>0.2160885790363096</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8145080317466977</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2266645974608679</v>
       </c>
       <c r="Q4">
-        <v>1.78927404543137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.524050922632625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8392484070443516</v>
+        <v>0.8339242759581396</v>
       </c>
       <c r="C5">
-        <v>0.1224580668811441</v>
+        <v>0.1306877008965586</v>
       </c>
       <c r="D5">
-        <v>0.06806808643112561</v>
+        <v>0.06586890272593848</v>
       </c>
       <c r="E5">
-        <v>0.06194127748193345</v>
+        <v>0.06350471186933682</v>
       </c>
       <c r="F5">
-        <v>0.5383174155658708</v>
+        <v>0.4701282948204906</v>
       </c>
       <c r="G5">
-        <v>0.0008257243780917779</v>
+        <v>0.01937785378317136</v>
       </c>
       <c r="H5">
-        <v>0.006935958760527439</v>
+        <v>0.00400573288332623</v>
       </c>
       <c r="I5">
-        <v>0.01066365019080218</v>
+        <v>0.005801108862354631</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4543803605983499</v>
+        <v>0.3861940932493155</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1880055219288757</v>
       </c>
       <c r="M5">
-        <v>0.7506466053049081</v>
+        <v>0.1099000695791688</v>
       </c>
       <c r="N5">
-        <v>0.2079759688302687</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7828219184854674</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.218366559956678</v>
       </c>
       <c r="Q5">
-        <v>1.780334830118434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.516512259027778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8328370181552032</v>
+        <v>0.8276804074302504</v>
       </c>
       <c r="C6">
-        <v>0.1223276170776657</v>
+        <v>0.1305074228133236</v>
       </c>
       <c r="D6">
-        <v>0.06787039191387834</v>
+        <v>0.06562012250483207</v>
       </c>
       <c r="E6">
-        <v>0.06156985315638508</v>
+        <v>0.06318337157265219</v>
       </c>
       <c r="F6">
-        <v>0.5366394464765278</v>
+        <v>0.4686119757886331</v>
       </c>
       <c r="G6">
-        <v>0.0008258555015880068</v>
+        <v>0.01954457019829836</v>
       </c>
       <c r="H6">
-        <v>0.007031047547133046</v>
+        <v>0.00406959299094467</v>
       </c>
       <c r="I6">
-        <v>0.01090045303798526</v>
+        <v>0.006006862016316283</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4536367062727713</v>
+        <v>0.3856094623495174</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1878868344237645</v>
       </c>
       <c r="M6">
-        <v>0.7459828774395447</v>
+        <v>0.1097059389353703</v>
       </c>
       <c r="N6">
-        <v>0.206714321102865</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7779617816096618</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2170718357780572</v>
       </c>
       <c r="Q6">
-        <v>1.776545081541954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.513153540145623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8738708149917329</v>
+        <v>0.8681554124725039</v>
       </c>
       <c r="C7">
-        <v>0.1250431473325904</v>
+        <v>0.1334592182195138</v>
       </c>
       <c r="D7">
-        <v>0.06998402744726206</v>
+        <v>0.06854910710465134</v>
       </c>
       <c r="E7">
-        <v>0.06346245880481405</v>
+        <v>0.06484095849679861</v>
       </c>
       <c r="F7">
-        <v>0.5421756792535817</v>
+        <v>0.4703049244388069</v>
       </c>
       <c r="G7">
-        <v>0.0008250022814616509</v>
+        <v>0.01886825702675932</v>
       </c>
       <c r="H7">
-        <v>0.006422868001617621</v>
+        <v>0.003672385043779924</v>
       </c>
       <c r="I7">
-        <v>0.01021564105319328</v>
+        <v>0.005648449030864811</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4534859933722402</v>
+        <v>0.383125388780261</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1855655641434275</v>
       </c>
       <c r="M7">
-        <v>0.7819215915505708</v>
+        <v>0.109328901357225</v>
       </c>
       <c r="N7">
-        <v>0.21621280431782</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8144936801090523</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2266278319564066</v>
       </c>
       <c r="Q7">
-        <v>1.782813487172305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.507987819814218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.055436149241245</v>
+        <v>1.045920392664954</v>
       </c>
       <c r="C8">
-        <v>0.1365212066868509</v>
+        <v>0.1469078541352431</v>
       </c>
       <c r="D8">
-        <v>0.07908039944528866</v>
+        <v>0.08040212941257607</v>
       </c>
       <c r="E8">
-        <v>0.07193454704969326</v>
+        <v>0.07210833289098062</v>
       </c>
       <c r="F8">
-        <v>0.5694057064348712</v>
+        <v>0.486718623351031</v>
       </c>
       <c r="G8">
-        <v>0.0008213599033008122</v>
+        <v>0.01621680912051282</v>
       </c>
       <c r="H8">
-        <v>0.004139106778448975</v>
+        <v>0.002193587496704064</v>
       </c>
       <c r="I8">
-        <v>0.007406886664417911</v>
+        <v>0.0040729876143768</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4548430354516597</v>
+        <v>0.3777499222294978</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1782228091597275</v>
       </c>
       <c r="M8">
-        <v>0.9394184664875525</v>
+        <v>0.11008181446857</v>
       </c>
       <c r="N8">
-        <v>0.2579413991986996</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9760523731065405</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2689468703141387</v>
       </c>
       <c r="Q8">
-        <v>1.819313878272851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.513877422965976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.411804404856326</v>
+        <v>1.39182108593107</v>
       </c>
       <c r="C9">
-        <v>0.1582691237506282</v>
+        <v>0.1743885627999049</v>
       </c>
       <c r="D9">
-        <v>0.09650217239266823</v>
+        <v>0.1017534054145983</v>
       </c>
       <c r="E9">
-        <v>0.0886543084688789</v>
+        <v>0.08611397853495006</v>
       </c>
       <c r="F9">
-        <v>0.6300224332784978</v>
+        <v>0.5354428188552589</v>
       </c>
       <c r="G9">
-        <v>0.0008146750014828585</v>
+        <v>0.01008535681615186</v>
       </c>
       <c r="H9">
-        <v>0.001253748802004129</v>
+        <v>0.0004596773674381271</v>
       </c>
       <c r="I9">
-        <v>0.003401624774892476</v>
+        <v>0.001847836912325818</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4620854516228619</v>
+        <v>0.3769724596193846</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1684111847080842</v>
       </c>
       <c r="M9">
-        <v>1.246615267790048</v>
+        <v>0.1183237343215069</v>
       </c>
       <c r="N9">
-        <v>0.3396267874590393</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.293635380991873</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3523748742402262</v>
       </c>
       <c r="Q9">
-        <v>1.913025192802166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.577159382172752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.668308662092102</v>
+        <v>1.643450814181477</v>
       </c>
       <c r="C10">
-        <v>0.1770126163335561</v>
+        <v>0.1951960230491494</v>
       </c>
       <c r="D10">
-        <v>0.1107162835073368</v>
+        <v>0.1217809256684177</v>
       </c>
       <c r="E10">
-        <v>0.09573678731576507</v>
+        <v>0.09192569282548035</v>
       </c>
       <c r="F10">
-        <v>0.6669602251419136</v>
+        <v>0.546532340447726</v>
       </c>
       <c r="G10">
-        <v>0.0008101321861384152</v>
+        <v>0.01468780403631698</v>
       </c>
       <c r="H10">
-        <v>0.0004667967475038282</v>
+        <v>0.0002178595075914558</v>
       </c>
       <c r="I10">
-        <v>0.001944830536054099</v>
+        <v>0.001347908196176029</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4603611346477123</v>
+        <v>0.3610103509448415</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1558925437534171</v>
       </c>
       <c r="M10">
-        <v>1.477574017444368</v>
+        <v>0.1205476320114336</v>
       </c>
       <c r="N10">
-        <v>0.3825049340156426</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.527253565556521</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3952062070084281</v>
       </c>
       <c r="Q10">
-        <v>1.956316935926026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.545410369387525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.747075443868539</v>
+        <v>1.731148157758668</v>
       </c>
       <c r="C11">
-        <v>0.2085687825847202</v>
+        <v>0.222965547745531</v>
       </c>
       <c r="D11">
-        <v>0.1292676075186421</v>
+        <v>0.1485659548761049</v>
       </c>
       <c r="E11">
-        <v>0.0624676952249974</v>
+        <v>0.0611394688199276</v>
       </c>
       <c r="F11">
-        <v>0.6026038293656484</v>
+        <v>0.459325929592822</v>
       </c>
       <c r="G11">
-        <v>0.0008087738044913828</v>
+        <v>0.04854918024548383</v>
       </c>
       <c r="H11">
-        <v>0.01906304288869265</v>
+        <v>0.01881133608267049</v>
       </c>
       <c r="I11">
-        <v>0.002192287103063073</v>
+        <v>0.001908350002395309</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3977445096681507</v>
+        <v>0.2962744035683151</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1312663112054704</v>
       </c>
       <c r="M11">
-        <v>1.620627997512827</v>
+        <v>0.09771582361838327</v>
       </c>
       <c r="N11">
-        <v>0.2640992773678761</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.658711198359327</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2723808738355586</v>
       </c>
       <c r="Q11">
-        <v>1.717944064750071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.251799976532538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.760450084396268</v>
+        <v>1.751416016650495</v>
       </c>
       <c r="C12">
-        <v>0.2341123202826054</v>
+        <v>0.2447445151806136</v>
       </c>
       <c r="D12">
-        <v>0.1425831284333157</v>
+        <v>0.1660833431149342</v>
       </c>
       <c r="E12">
-        <v>0.04230242526779193</v>
+        <v>0.04241426018288941</v>
       </c>
       <c r="F12">
-        <v>0.5454464820807772</v>
+        <v>0.4006270385059594</v>
       </c>
       <c r="G12">
-        <v>0.0008084783186070993</v>
+        <v>0.07305752727541659</v>
       </c>
       <c r="H12">
-        <v>0.05781931879361935</v>
+        <v>0.05752760510690536</v>
       </c>
       <c r="I12">
-        <v>0.002152002841924627</v>
+        <v>0.001900269456760917</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3524226407664308</v>
+        <v>0.2590667422466009</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.118529098236742</v>
       </c>
       <c r="M12">
-        <v>1.692394266404648</v>
+        <v>0.08298012588317327</v>
       </c>
       <c r="N12">
-        <v>0.1740466704258878</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.722315425263702</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1797790687758578</v>
       </c>
       <c r="Q12">
-        <v>1.528582180505595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.071741138594859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.72238307313782</v>
+        <v>1.717651937118035</v>
       </c>
       <c r="C13">
-        <v>0.2570695343573561</v>
+        <v>0.2659770415273073</v>
       </c>
       <c r="D13">
-        <v>0.1528588809276954</v>
+        <v>0.1754160186755342</v>
       </c>
       <c r="E13">
-        <v>0.03066349084688724</v>
+        <v>0.03169740773783536</v>
       </c>
       <c r="F13">
-        <v>0.4873702451843229</v>
+        <v>0.3607983291303967</v>
       </c>
       <c r="G13">
-        <v>0.0008090069542819106</v>
+        <v>0.06739763241288088</v>
       </c>
       <c r="H13">
-        <v>0.113720607570059</v>
+        <v>0.113340311239071</v>
       </c>
       <c r="I13">
-        <v>0.002263101211145369</v>
+        <v>0.001905766113313057</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3150069758934819</v>
+        <v>0.237691766500264</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1119394490203938</v>
       </c>
       <c r="M13">
-        <v>1.714509210295603</v>
+        <v>0.07333213677732431</v>
       </c>
       <c r="N13">
-        <v>0.1013057824310337</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.740467303723477</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1056401249917158</v>
       </c>
       <c r="Q13">
-        <v>1.355526316985589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9629094449524018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.672223875284971</v>
+        <v>1.669371168263439</v>
       </c>
       <c r="C14">
-        <v>0.2725592530311332</v>
+        <v>0.281382891635559</v>
       </c>
       <c r="D14">
-        <v>0.1588059471164911</v>
+        <v>0.178181948843914</v>
       </c>
       <c r="E14">
-        <v>0.02758422046601072</v>
+        <v>0.02914560391558019</v>
       </c>
       <c r="F14">
-        <v>0.4464043518260041</v>
+        <v>0.3396891947825083</v>
       </c>
       <c r="G14">
-        <v>0.0008097496791717684</v>
+        <v>0.05091707328345407</v>
       </c>
       <c r="H14">
-        <v>0.1632106258022361</v>
+        <v>0.1627408149029606</v>
       </c>
       <c r="I14">
-        <v>0.002513239902834918</v>
+        <v>0.002025502834750448</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2927982089676995</v>
+        <v>0.2284201402922683</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1093354484253153</v>
       </c>
       <c r="M14">
-        <v>1.7078268898305</v>
+        <v>0.06855749188474114</v>
       </c>
       <c r="N14">
-        <v>0.06124648431269719</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.732841562080779</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.0649632442374326</v>
       </c>
       <c r="Q14">
-        <v>1.242624494525245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9121968886240239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.648741439487395</v>
+        <v>1.645895042614058</v>
       </c>
       <c r="C15">
-        <v>0.2756658223739237</v>
+        <v>0.2851273739698854</v>
       </c>
       <c r="D15">
-        <v>0.1595722169151514</v>
+        <v>0.1771182829864415</v>
       </c>
       <c r="E15">
-        <v>0.02747071360693565</v>
+        <v>0.0291924570556259</v>
       </c>
       <c r="F15">
-        <v>0.4354530965810213</v>
+        <v>0.3367019824867157</v>
       </c>
       <c r="G15">
-        <v>0.0008101223795431434</v>
+        <v>0.04256578793814469</v>
       </c>
       <c r="H15">
-        <v>0.1757882920813927</v>
+        <v>0.1752744699554256</v>
       </c>
       <c r="I15">
-        <v>0.002743286116959176</v>
+        <v>0.002207101740152595</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2881327661672106</v>
+        <v>0.227818580694505</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1092816365655001</v>
       </c>
       <c r="M15">
-        <v>1.695813680359635</v>
+        <v>0.06792833795769759</v>
       </c>
       <c r="N15">
-        <v>0.0527965000168642</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.721403688825063</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05645085608703582</v>
       </c>
       <c r="Q15">
-        <v>1.215588098642428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9081213246948465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.546039976458161</v>
+        <v>1.539631421922593</v>
       </c>
       <c r="C16">
-        <v>0.2624613167044316</v>
+        <v>0.2774022002922862</v>
       </c>
       <c r="D16">
-        <v>0.1510943389776429</v>
+        <v>0.1602287576032637</v>
       </c>
       <c r="E16">
-        <v>0.02704949759842212</v>
+        <v>0.02915786544240451</v>
       </c>
       <c r="F16">
-        <v>0.4304679368673234</v>
+        <v>0.358521235085945</v>
       </c>
       <c r="G16">
-        <v>0.0008119617940684971</v>
+        <v>0.01476224238362001</v>
       </c>
       <c r="H16">
-        <v>0.1634277405499915</v>
+        <v>0.1626647262979759</v>
       </c>
       <c r="I16">
-        <v>0.003438693466278231</v>
+        <v>0.002548270019436139</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2955055627444914</v>
+        <v>0.2439586917574186</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1153199903351148</v>
       </c>
       <c r="M16">
-        <v>1.59113716412574</v>
+        <v>0.07288067312082269</v>
       </c>
       <c r="N16">
-        <v>0.05150277245798662</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.623367704024616</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05587591637212697</v>
       </c>
       <c r="Q16">
-        <v>1.228634263336502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9903906241063396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.493947484863327</v>
+        <v>1.484670655162006</v>
       </c>
       <c r="C17">
-        <v>0.2439678047256706</v>
+        <v>0.2618029970321913</v>
       </c>
       <c r="D17">
-        <v>0.1414444746821317</v>
+        <v>0.1472242368738677</v>
       </c>
       <c r="E17">
-        <v>0.02748016905803818</v>
+        <v>0.02945271015405848</v>
       </c>
       <c r="F17">
-        <v>0.4481702857559426</v>
+        <v>0.3844012708193887</v>
       </c>
       <c r="G17">
-        <v>0.0008129847351881276</v>
+        <v>0.009096014796313057</v>
       </c>
       <c r="H17">
-        <v>0.1258729586690492</v>
+        <v>0.1249593932196262</v>
       </c>
       <c r="I17">
-        <v>0.00388516245318371</v>
+        <v>0.002786436685350502</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3125349184631396</v>
+        <v>0.2616130245390984</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1220435501091366</v>
       </c>
       <c r="M17">
-        <v>1.514732636911418</v>
+        <v>0.07886408938438372</v>
       </c>
       <c r="N17">
-        <v>0.06968004733445099</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.551275099883583</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07502027993322713</v>
       </c>
       <c r="Q17">
-        <v>1.297533805352487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.077600945235119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.480047752953652</v>
+        <v>1.466982183449204</v>
       </c>
       <c r="C18">
-        <v>0.2196656635451433</v>
+        <v>0.2393382673580788</v>
       </c>
       <c r="D18">
-        <v>0.1298565721718035</v>
+        <v>0.13462964754018</v>
       </c>
       <c r="E18">
-        <v>0.03318372300678263</v>
+        <v>0.03435598402429907</v>
       </c>
       <c r="F18">
-        <v>0.4898780886720218</v>
+        <v>0.4240583264563753</v>
       </c>
       <c r="G18">
-        <v>0.0008133642703377099</v>
+        <v>0.007820870810648195</v>
       </c>
       <c r="H18">
-        <v>0.07306455751309215</v>
+        <v>0.07212288560664604</v>
       </c>
       <c r="I18">
-        <v>0.003777513759587237</v>
+        <v>0.002564898547088745</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3431067410234903</v>
+        <v>0.2871439004815031</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1316904210278071</v>
       </c>
       <c r="M18">
-        <v>1.453335764640116</v>
+        <v>0.0881464052083345</v>
       </c>
       <c r="N18">
-        <v>0.1163138808976427</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.494297884158442</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1232903649447366</v>
       </c>
       <c r="Q18">
-        <v>1.432380200329575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.201263083688119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.495565852955281</v>
+        <v>1.477858528469824</v>
       </c>
       <c r="C19">
-        <v>0.196739372097781</v>
+        <v>0.217348812155123</v>
       </c>
       <c r="D19">
-        <v>0.1187161127451049</v>
+        <v>0.1236927081726122</v>
       </c>
       <c r="E19">
-        <v>0.04927214019619974</v>
+        <v>0.04892275470206542</v>
       </c>
       <c r="F19">
-        <v>0.5470323928012348</v>
+        <v>0.4728663358732064</v>
       </c>
       <c r="G19">
-        <v>0.0008131672501523797</v>
+        <v>0.00737452084743806</v>
       </c>
       <c r="H19">
-        <v>0.02756980894000094</v>
+        <v>0.02674298657173324</v>
       </c>
       <c r="I19">
-        <v>0.003768046257119906</v>
+        <v>0.002643783392682231</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3840196543661953</v>
+        <v>0.3188942356407303</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1435131705554902</v>
       </c>
       <c r="M19">
-        <v>1.411434163980886</v>
+        <v>0.1001359173449519</v>
       </c>
       <c r="N19">
-        <v>0.1975983330044357</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.457073658840045</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2069202085012591</v>
       </c>
       <c r="Q19">
-        <v>1.611700136717758</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.35040288608154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.597312031136966</v>
+        <v>1.572168534597864</v>
       </c>
       <c r="C20">
-        <v>0.1740850197213248</v>
+        <v>0.1937876440116781</v>
       </c>
       <c r="D20">
-        <v>0.1078046166973152</v>
+        <v>0.1156160118924419</v>
       </c>
       <c r="E20">
-        <v>0.09301628263544615</v>
+        <v>0.08934689958969244</v>
       </c>
       <c r="F20">
-        <v>0.6507426539868604</v>
+        <v>0.54882438565906</v>
       </c>
       <c r="G20">
-        <v>0.0008113508782613248</v>
+        <v>0.008388425397620303</v>
       </c>
       <c r="H20">
-        <v>0.0005923893221879695</v>
+        <v>0.0002108096820232497</v>
       </c>
       <c r="I20">
-        <v>0.003074801396703464</v>
+        <v>0.002382477381060788</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4553931408002008</v>
+        <v>0.3667438607273894</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1596232866134635</v>
       </c>
       <c r="M20">
-        <v>1.420645159456569</v>
+        <v>0.1205136448530837</v>
       </c>
       <c r="N20">
-        <v>0.3712333830463308</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.472142897925067</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3844618777472277</v>
       </c>
       <c r="Q20">
-        <v>1.923916192139302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.569955237163271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.801047852620655</v>
+        <v>1.780506978883068</v>
       </c>
       <c r="C21">
-        <v>0.184866886327427</v>
+        <v>0.1974731273511026</v>
       </c>
       <c r="D21">
-        <v>0.116651503250722</v>
+        <v>0.1387035500664524</v>
       </c>
       <c r="E21">
-        <v>0.1061993331923041</v>
+        <v>0.1025362148506836</v>
       </c>
       <c r="F21">
-        <v>0.6957196823707861</v>
+        <v>0.5146557521103148</v>
       </c>
       <c r="G21">
-        <v>0.0008078162583373537</v>
+        <v>0.06945684664260199</v>
       </c>
       <c r="H21">
-        <v>3.366208888766486E-05</v>
+        <v>1.019991624651162E-05</v>
       </c>
       <c r="I21">
-        <v>0.002177424555457108</v>
+        <v>0.002110874080200276</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.466886870917314</v>
+        <v>0.333963374674898</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1436444937035066</v>
       </c>
       <c r="M21">
-        <v>1.591313780339078</v>
+        <v>0.1139404318144415</v>
       </c>
       <c r="N21">
-        <v>0.431306727311167</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.632092921707965</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4421678460558667</v>
       </c>
       <c r="Q21">
-        <v>2.010444984212398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.414187239891376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.933596265038204</v>
+        <v>1.917276740783166</v>
       </c>
       <c r="C22">
-        <v>0.1923280612496399</v>
+        <v>0.1999741545894693</v>
       </c>
       <c r="D22">
-        <v>0.122765480014678</v>
+        <v>0.1555563076153419</v>
       </c>
       <c r="E22">
-        <v>0.1125658111985608</v>
+        <v>0.1093040910552148</v>
       </c>
       <c r="F22">
-        <v>0.7234588125919146</v>
+        <v>0.4881170616336661</v>
       </c>
       <c r="G22">
-        <v>0.0008055788341692935</v>
+        <v>0.1581772954459026</v>
       </c>
       <c r="H22">
-        <v>1.47264106433731E-05</v>
+        <v>0.0001190617767266033</v>
       </c>
       <c r="I22">
-        <v>0.00156522482338417</v>
+        <v>0.001711831327845914</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4730148619536223</v>
+        <v>0.3108228568020053</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1334693425749247</v>
       </c>
       <c r="M22">
-        <v>1.703660987296104</v>
+        <v>0.1085278680292845</v>
       </c>
       <c r="N22">
-        <v>0.4614086174762662</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.735952534155729</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4702554479581948</v>
       </c>
       <c r="Q22">
-        <v>2.061419382642583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.302526091265293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.864192648909466</v>
+        <v>1.844153434442433</v>
       </c>
       <c r="C23">
-        <v>0.1876068369099499</v>
+        <v>0.198856855893041</v>
       </c>
       <c r="D23">
-        <v>0.1192055368254117</v>
+        <v>0.1447279311329481</v>
       </c>
       <c r="E23">
-        <v>0.1094251066753067</v>
+        <v>0.1056892579142961</v>
       </c>
       <c r="F23">
-        <v>0.7108434937858519</v>
+        <v>0.5114202798747129</v>
       </c>
       <c r="G23">
-        <v>0.0008067541331328896</v>
+        <v>0.09243243491740571</v>
       </c>
       <c r="H23">
-        <v>1.507261954580841E-06</v>
+        <v>4.843868658244155E-05</v>
       </c>
       <c r="I23">
-        <v>0.001549495214022478</v>
+        <v>0.001534502444551222</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4716280298910362</v>
+        <v>0.3282978597878987</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1404795933986982</v>
       </c>
       <c r="M23">
-        <v>1.642297220761606</v>
+        <v>0.1136487592548079</v>
       </c>
       <c r="N23">
-        <v>0.445046161245358</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.681021962130444</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4553844508998566</v>
       </c>
       <c r="Q23">
-        <v>2.041327014532811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.389498062439969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.599255061952448</v>
+        <v>1.573501325054707</v>
       </c>
       <c r="C24">
-        <v>0.1710656604667022</v>
+        <v>0.1904433572731961</v>
       </c>
       <c r="D24">
-        <v>0.1062232833676404</v>
+        <v>0.1139024380755629</v>
       </c>
       <c r="E24">
-        <v>0.09709999701296113</v>
+        <v>0.09314771971920521</v>
       </c>
       <c r="F24">
-        <v>0.660826399981211</v>
+        <v>0.5579091686606148</v>
       </c>
       <c r="G24">
-        <v>0.0008113223264104241</v>
+        <v>0.008172509655663518</v>
       </c>
       <c r="H24">
-        <v>0.0004379543352186488</v>
+        <v>7.716044612382511E-05</v>
       </c>
       <c r="I24">
-        <v>0.002545875697705036</v>
+        <v>0.001768767008300642</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4639220283451664</v>
+        <v>0.3737170415929896</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1622206072327295</v>
       </c>
       <c r="M24">
-        <v>1.412610733556107</v>
+        <v>0.1231408523522362</v>
       </c>
       <c r="N24">
-        <v>0.3837388965464612</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.464645988321848</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3973174258414929</v>
       </c>
       <c r="Q24">
-        <v>1.957436564291413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.599307002809212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.313522110066231</v>
+        <v>1.295883773550997</v>
       </c>
       <c r="C25">
-        <v>0.1534216144103269</v>
+        <v>0.1688035456381414</v>
       </c>
       <c r="D25">
-        <v>0.09222400706372724</v>
+        <v>0.09575413304282421</v>
       </c>
       <c r="E25">
-        <v>0.08376793960490048</v>
+        <v>0.08189744781609321</v>
       </c>
       <c r="F25">
-        <v>0.6097136323776766</v>
+        <v>0.5233352103914655</v>
       </c>
       <c r="G25">
-        <v>0.0008164578851217396</v>
+        <v>0.01042559851100133</v>
       </c>
       <c r="H25">
-        <v>0.001858535183302146</v>
+        <v>0.0007898982418658163</v>
       </c>
       <c r="I25">
-        <v>0.004735187848281974</v>
+        <v>0.00282075360229328</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4569712319499608</v>
+        <v>0.3771101150520408</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1710232800982183</v>
       </c>
       <c r="M25">
-        <v>1.165499627565481</v>
+        <v>0.1156509039004732</v>
       </c>
       <c r="N25">
-        <v>0.3179155243323777</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.21070203024604</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3304018234500177</v>
       </c>
       <c r="Q25">
-        <v>1.875126453083396</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.563570912844057</v>
       </c>
     </row>
   </sheetData>
